--- a/data_output/output for F24 passive 2018-01-09 new prism/all_passive_output_20180108_1532.xlsx
+++ b/data_output/output for F24 passive 2018-01-09 new prism/all_passive_output_20180108_1532.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\output for F24 passive 2018-01-09 new prism\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Marie M. Moltubakk</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marie M. Moltubakk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2 headers had swapped places - replaced 2018-01-10.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,9 +93,6 @@
     <t>force at subject max ROM</t>
   </si>
   <si>
-    <t>force at subject max force</t>
-  </si>
-  <si>
     <t>force at common max ROM</t>
   </si>
   <si>
@@ -78,9 +109,6 @@
   </si>
   <si>
     <t>torque at subject max ROM</t>
-  </si>
-  <si>
-    <t>torque at subject max torque</t>
   </si>
   <si>
     <t>torque at common max ROM</t>
@@ -955,12 +983,18 @@
   <si>
     <t>STR</t>
   </si>
+  <si>
+    <t>torque at trial max TORQUE</t>
+  </si>
+  <si>
+    <t>force at trial max FORCE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,13 +1002,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -986,13 +1089,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Dårlig" xfId="2" builtinId="27"/>
+    <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1270,927 +1400,933 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KR105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:KR105"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="11.5546875" style="1"/>
+    <col min="36" max="37" width="11.5546875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:304" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:304" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DM1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DT1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DU1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DV1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DW1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DX1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DY1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DZ1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EA1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EB1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EC1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="ED1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EE1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EF1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EG1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EH1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EI1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EK1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EL1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EM1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EN1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EO1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EP1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ER1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ES1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ET1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="EU1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EV1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EW1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EX1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EY1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EZ1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FA1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FB1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FC1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FD1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FE1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FF1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FG1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FH1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FI1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FJ1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FK1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FL1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FM1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FN1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FO1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FP1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FR1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FS1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FT1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FU1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FV1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FW1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FX1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FY1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FZ1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="GA1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GB1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GC1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GD1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GE1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GF1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GG1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GH1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GI1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="GK1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="GL1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="GM1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="GN1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="GO1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="GP1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="GR1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="GS1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="GT1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="GU1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="GV1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="GW1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GX1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="GY1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="GZ1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="HA1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="HB1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HC1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HD1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HE1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HF1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="HG1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="HH1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="HI1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="HJ1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="HK1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="HL1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="HM1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" t="s">
+      <c r="HN1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" t="s">
+      <c r="HO1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" t="s">
+      <c r="HP1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="HR1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="HS1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="HT1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="HU1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" t="s">
+      <c r="HV1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" t="s">
+      <c r="HW1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="HX1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="HY1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="HZ1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" t="s">
+      <c r="IA1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" t="s">
+      <c r="IB1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" t="s">
+      <c r="IC1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" t="s">
+      <c r="ID1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" t="s">
+      <c r="IE1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IF1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IG1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="IH1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="II1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="IJ1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="II1" t="s">
+      <c r="IK1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IL1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="IM1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="IN1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="IO1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" t="s">
+      <c r="IP1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="IO1" t="s">
+      <c r="IQ1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="IR1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="IS1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="IT1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="IU1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="IV1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="IU1" t="s">
+      <c r="IW1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="IV1" t="s">
+      <c r="IX1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="IW1" t="s">
+      <c r="IY1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="IX1" t="s">
+      <c r="IZ1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="IY1" t="s">
+      <c r="JA1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="IZ1" t="s">
+      <c r="JB1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="JA1" t="s">
+      <c r="JC1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="JB1" t="s">
+      <c r="JD1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="JC1" t="s">
+      <c r="JE1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="JD1" t="s">
+      <c r="JF1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="JE1" t="s">
+      <c r="JG1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="JF1" t="s">
+      <c r="JH1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="JG1" t="s">
+      <c r="JI1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="JH1" t="s">
+      <c r="JJ1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="JI1" t="s">
+      <c r="JK1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="JJ1" t="s">
+      <c r="JL1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="JK1" t="s">
+      <c r="JM1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="JL1" t="s">
+      <c r="JN1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="JO1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="JP1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="JO1" t="s">
+      <c r="JQ1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="JP1" t="s">
+      <c r="JR1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="JQ1" t="s">
+      <c r="JS1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="JR1" t="s">
+      <c r="JT1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="JU1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="JT1" t="s">
+      <c r="JV1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="JU1" t="s">
+      <c r="JW1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="JV1" t="s">
+      <c r="JX1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="JW1" t="s">
+      <c r="JY1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="JZ1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="JY1" t="s">
+      <c r="KA1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="JZ1" t="s">
+      <c r="KB1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="KC1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="KB1" t="s">
+      <c r="KD1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="KC1" t="s">
+      <c r="KE1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="KD1" t="s">
+      <c r="KF1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="KE1" t="s">
+      <c r="KG1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="KF1" t="s">
+      <c r="KH1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="KG1" t="s">
+      <c r="KI1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="KH1" t="s">
+      <c r="KJ1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="KI1" t="s">
+      <c r="KK1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="KJ1" t="s">
+      <c r="KL1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="KK1" t="s">
+      <c r="KM1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="KL1" t="s">
+      <c r="KN1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="KM1" t="s">
+      <c r="KO1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="KN1" t="s">
+      <c r="KP1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="KO1" t="s">
+      <c r="KQ1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="KP1" t="s">
+      <c r="KR1" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="KQ1" t="s">
-        <v>302</v>
-      </c>
-      <c r="KR1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:304" x14ac:dyDescent="0.3">
@@ -2198,13 +2334,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" t="s">
-        <v>306</v>
       </c>
       <c r="E2">
         <v>27.449999989999998</v>
@@ -2221,37 +2357,37 @@
       <c r="I2">
         <v>18.299999993333333</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>1099.5792449581941</v>
       </c>
       <c r="K2">
         <v>1099.5792449581941</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>1028.4161163864098</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>327.25693702410661</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>284.96483565818897</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>449.14927683755968</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>715.38046403482292</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>58.849387176137107</v>
       </c>
       <c r="R2">
         <v>58.849387176137107</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>55.040742619422709</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>17.514763289062071</v>
       </c>
       <c r="U2">
@@ -2275,10 +2411,10 @@
       <c r="AA2">
         <v>27.450000000000003</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="1">
         <v>2.0677696282458222</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="1">
         <v>2.2122509099574499</v>
       </c>
       <c r="AE2">
@@ -2296,10 +2432,10 @@
       <c r="AI2">
         <v>1.6355759451917369</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="1">
         <v>77.760402889280257</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="1">
         <v>76.569544480588931</v>
       </c>
       <c r="AL2">
@@ -3067,13 +3203,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E3">
         <v>35.749999989999999</v>
@@ -3147,10 +3283,10 @@
       <c r="AB3">
         <v>30.35</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>2.8151222005299026</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>2.29006679737053</v>
       </c>
       <c r="AE3">
@@ -3168,10 +3304,10 @@
       <c r="AI3">
         <v>1.1475412933157558</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="1">
         <v>62.013870884439385</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="1">
         <v>55.765281992491552</v>
       </c>
       <c r="AL3">
@@ -3939,13 +4075,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E4">
         <v>25.749999989999999</v>
@@ -4019,10 +4155,10 @@
       <c r="AB4">
         <v>25.75</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
         <v>4.0898347331636549</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>4.0898347331636549</v>
       </c>
       <c r="AE4">
@@ -4040,10 +4176,10 @@
       <c r="AI4">
         <v>2.5020758529754765</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="1">
         <v>57.68044654315608</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="1">
         <v>57.68044654315608</v>
       </c>
       <c r="AL4">
@@ -4853,13 +4989,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" t="s">
         <v>307</v>
-      </c>
-      <c r="C5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" t="s">
-        <v>309</v>
       </c>
       <c r="E5">
         <v>35.599999990000001</v>
@@ -4933,10 +5069,10 @@
       <c r="AB5">
         <v>32.25</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="1">
         <v>4.4028839498765713</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="1">
         <v>2.7971429150354643</v>
       </c>
       <c r="AE5">
@@ -4954,10 +5090,10 @@
       <c r="AI5">
         <v>1.5964885823096218</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="1">
         <v>54.951681211218038</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="1">
         <v>48.686858825184395</v>
       </c>
       <c r="AL5">
@@ -5767,13 +5903,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
         <v>304</v>
-      </c>
-      <c r="C6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" t="s">
-        <v>306</v>
       </c>
       <c r="E6">
         <v>18.199999989999998</v>
@@ -5844,10 +5980,10 @@
       <c r="AB6">
         <v>18.2</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="1">
         <v>3.1947205224526294</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="1">
         <v>3.1947205224526294</v>
       </c>
       <c r="AE6">
@@ -5865,10 +6001,10 @@
       <c r="AI6">
         <v>1.9869012504798818</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="1">
         <v>63.754925913993773</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="1">
         <v>63.754925913993773</v>
       </c>
       <c r="AL6">
@@ -6636,13 +6772,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E7">
         <v>26.849999990000001</v>
@@ -6713,10 +6849,10 @@
       <c r="AB7">
         <v>25.85</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="1">
         <v>3.2514379487160383</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="1">
         <v>1.558789702633125</v>
       </c>
       <c r="AE7">
@@ -6734,10 +6870,10 @@
       <c r="AI7">
         <v>1.2053168830624605</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="1">
         <v>67.496321707069299</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="1">
         <v>61.026883144171755</v>
       </c>
       <c r="AL7">
@@ -7547,13 +7683,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E8">
         <v>26.899999989999998</v>
@@ -7627,10 +7763,10 @@
       <c r="AB8">
         <v>24.150000000000002</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="1">
         <v>1.6397668692539944</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="1">
         <v>1.4583178549884335</v>
       </c>
       <c r="AE8">
@@ -7648,10 +7784,10 @@
       <c r="AI8">
         <v>1.0484351251036264</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="1">
         <v>79.993400774672281</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="1">
         <v>74.232245473006458</v>
       </c>
       <c r="AL8">
@@ -8461,13 +8597,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
         <v>307</v>
-      </c>
-      <c r="C9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D9" t="s">
-        <v>309</v>
       </c>
       <c r="E9">
         <v>31.349999990000001</v>
@@ -8541,10 +8677,10 @@
       <c r="AB9">
         <v>25.5</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="1">
         <v>1.8643379605012593</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="1">
         <v>1.3936552272653864</v>
       </c>
       <c r="AE9">
@@ -8562,10 +8698,10 @@
       <c r="AI9">
         <v>1.1661020408827845</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="1">
         <v>85.585500534456202</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="1">
         <v>76.137092122425855</v>
       </c>
       <c r="AL9">
@@ -9333,13 +9469,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" t="s">
         <v>304</v>
-      </c>
-      <c r="C10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" t="s">
-        <v>306</v>
       </c>
       <c r="E10">
         <v>25.949999989999998</v>
@@ -9413,10 +9549,10 @@
       <c r="AB10">
         <v>20.650000000000002</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="1">
         <v>11.646355131243617</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="1">
         <v>1.4802873246455617</v>
       </c>
       <c r="AE10">
@@ -9434,10 +9570,10 @@
       <c r="AI10">
         <v>0.71712500260060785</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="1">
         <v>96.712169967595813</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="1">
         <v>87.460494236956066</v>
       </c>
       <c r="AL10">
@@ -10247,13 +10383,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E11">
         <v>24.54999999</v>
@@ -10327,10 +10463,10 @@
       <c r="AB11">
         <v>24.55</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="1">
         <v>7.7633235377185494</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="1">
         <v>1.319718838386077</v>
       </c>
       <c r="AE11">
@@ -10348,10 +10484,10 @@
       <c r="AI11">
         <v>1.1668527990549493</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="1">
         <v>69.490623925668757</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="1">
         <v>60.766328975286847</v>
       </c>
       <c r="AL11">
@@ -11119,13 +11255,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E12">
         <v>9.4999999899999992</v>
@@ -11190,10 +11326,10 @@
       <c r="AA12">
         <v>9.5</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="1">
         <v>1.7540717649294881</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="1">
         <v>1.7540717649294881</v>
       </c>
       <c r="AE12">
@@ -11205,10 +11341,10 @@
       <c r="AI12">
         <v>3.1687346844125677</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="1">
         <v>56.982170214194269</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="1">
         <v>56.982170214194269</v>
       </c>
       <c r="AL12">
@@ -11853,13 +11989,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
         <v>307</v>
-      </c>
-      <c r="C13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" t="s">
-        <v>309</v>
       </c>
       <c r="E13">
         <v>26.949999989999998</v>
@@ -11930,10 +12066,10 @@
       <c r="AA13">
         <v>15.100000000000001</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="1">
         <v>1.5424564316983955</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="1">
         <v>0.78031982456134097</v>
       </c>
       <c r="AE13">
@@ -11951,10 +12087,10 @@
       <c r="AI13">
         <v>0.36623051706419879</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="1">
         <v>63.111826037201162</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="1">
         <v>55.035572862157416</v>
       </c>
       <c r="AL13">
@@ -12722,13 +12858,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" t="s">
         <v>304</v>
-      </c>
-      <c r="C14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D14" t="s">
-        <v>306</v>
       </c>
       <c r="E14">
         <v>31.249999989999999</v>
@@ -12802,10 +12938,10 @@
       <c r="AB14">
         <v>26.5</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="1">
         <v>-11.488068370320882</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="1">
         <v>1.0400558404831393</v>
       </c>
       <c r="AE14">
@@ -12823,10 +12959,10 @@
       <c r="AI14">
         <v>0.32624482803718113</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="1">
         <v>62.871528810008527</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="1">
         <v>53.497206571522206</v>
       </c>
       <c r="AL14">
@@ -13594,13 +13730,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E15">
         <v>31.349999990000001</v>
@@ -13671,10 +13807,10 @@
       <c r="AB15">
         <v>31.35</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="1">
         <v>-1.3366025195585216</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="1">
         <v>0.68247294345290177</v>
       </c>
       <c r="AE15">
@@ -13692,10 +13828,10 @@
       <c r="AI15">
         <v>0.64288629805904651</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="1">
         <v>62.959862558796523</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="1">
         <v>53.126145622792826</v>
       </c>
       <c r="AL15">
@@ -14463,13 +14599,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E16">
         <v>15.29999999</v>
@@ -14543,10 +14679,10 @@
       <c r="AB16">
         <v>9.15</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="1">
         <v>4.2077608245759119</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="1">
         <v>4.2077608245759119</v>
       </c>
       <c r="AE16">
@@ -14564,10 +14700,10 @@
       <c r="AI16">
         <v>0.29457413243991559</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="1">
         <v>62.396360381943104</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="1">
         <v>62.396360381943104</v>
       </c>
       <c r="AL16">
@@ -15335,13 +15471,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" t="s">
         <v>307</v>
-      </c>
-      <c r="C17" t="s">
-        <v>305</v>
-      </c>
-      <c r="D17" t="s">
-        <v>309</v>
       </c>
       <c r="E17">
         <v>28.399999989999998</v>
@@ -15415,10 +15551,10 @@
       <c r="AB17">
         <v>25.6</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="1">
         <v>6.254074133873246</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="1">
         <v>1.6335383840718012</v>
       </c>
       <c r="AE17">
@@ -15436,10 +15572,10 @@
       <c r="AI17">
         <v>0.42897560640982652</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" s="1">
         <v>71.761601778656683</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" s="1">
         <v>65.779650314942415</v>
       </c>
       <c r="AL17">
@@ -16207,13 +16343,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" t="s">
         <v>304</v>
-      </c>
-      <c r="C18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D18" t="s">
-        <v>306</v>
       </c>
       <c r="E18">
         <v>11.79999999</v>
@@ -16287,10 +16423,10 @@
       <c r="AB18">
         <v>11.8</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="1">
         <v>2.5181816586384498</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="1">
         <v>2.5181816586384498</v>
       </c>
       <c r="AE18">
@@ -16305,10 +16441,10 @@
       <c r="AI18">
         <v>2.9481965874870304</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="1">
         <v>98.787746427366386</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="1">
         <v>98.787746427366386</v>
       </c>
       <c r="AL18">
@@ -17076,13 +17212,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E19">
         <v>24.699999989999998</v>
@@ -17156,10 +17292,10 @@
       <c r="AB19">
         <v>19.800000000000004</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="1">
         <v>-5.6228339669575478</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="1">
         <v>1.3821625578198664</v>
       </c>
       <c r="AE19">
@@ -17177,10 +17313,10 @@
       <c r="AI19">
         <v>1.7662166744394332</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="1">
         <v>74.330555920462189</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="1">
         <v>65.403081722216768</v>
       </c>
       <c r="AL19">
@@ -17948,13 +18084,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E20">
         <v>16.949999989999998</v>
@@ -18025,10 +18161,10 @@
       <c r="AA20">
         <v>16.95</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="1">
         <v>1.5866018909327315</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="1">
         <v>0.74745912633076428</v>
       </c>
       <c r="AE20">
@@ -18046,10 +18182,10 @@
       <c r="AI20">
         <v>0.32940967055973563</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="1">
         <v>62.949000726020202</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="1">
         <v>59.752600098180274</v>
       </c>
       <c r="AL20">
@@ -18859,13 +18995,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" t="s">
         <v>307</v>
-      </c>
-      <c r="C21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" t="s">
-        <v>309</v>
       </c>
       <c r="E21">
         <v>27.499999989999999</v>
@@ -18939,10 +19075,10 @@
       <c r="AB21">
         <v>24.8</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="1">
         <v>3.6932552149160855</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="1">
         <v>0.94777349491348151</v>
       </c>
       <c r="AE21">
@@ -18960,10 +19096,10 @@
       <c r="AI21">
         <v>0.83296165981565518</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="1">
         <v>54.488484543239075</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="1">
         <v>43.397167437236924</v>
       </c>
       <c r="AL21">
@@ -19731,13 +19867,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" t="s">
         <v>304</v>
-      </c>
-      <c r="C22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" t="s">
-        <v>306</v>
       </c>
       <c r="E22">
         <v>13.099999989999999</v>
@@ -19808,10 +19944,10 @@
       <c r="AB22">
         <v>13.100000000000001</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="1">
         <v>2.2734345260362296</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="1">
         <v>2.0361353793724959</v>
       </c>
       <c r="AE22">
@@ -19826,10 +19962,10 @@
       <c r="AI22">
         <v>1.7840844705653289</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="1">
         <v>44.377351098386036</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" s="1">
         <v>43.702960458933056</v>
       </c>
       <c r="AL22">
@@ -20597,13 +20733,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E23">
         <v>12.099999989999999</v>
@@ -20674,10 +20810,10 @@
       <c r="AB23">
         <v>11.000000000000002</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="1">
         <v>3.2815444758098593</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="1">
         <v>3.2815444758098593</v>
       </c>
       <c r="AE23">
@@ -20692,10 +20828,10 @@
       <c r="AI23">
         <v>3.8071528367736285</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" s="1">
         <v>45.445587139040988</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" s="1">
         <v>45.445587139040988</v>
       </c>
       <c r="AL23">
@@ -21505,13 +21641,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E24">
         <v>16.249999989999999</v>
@@ -21585,10 +21721,10 @@
       <c r="AB24">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="1">
         <v>2.7850821733491955</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="1">
         <v>2.2448115517038945</v>
       </c>
       <c r="AE24">
@@ -21606,10 +21742,10 @@
       <c r="AI24">
         <v>1.3849389821001026</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" s="1">
         <v>47.471386958959421</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="1">
         <v>45.028180202435131</v>
       </c>
       <c r="AL24">
@@ -22419,13 +22555,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" t="s">
         <v>307</v>
-      </c>
-      <c r="C25" t="s">
-        <v>305</v>
-      </c>
-      <c r="D25" t="s">
-        <v>309</v>
       </c>
       <c r="E25">
         <v>21.29999999</v>
@@ -22499,10 +22635,10 @@
       <c r="AB25">
         <v>15.15</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="1">
         <v>2.9702666046357007</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="1">
         <v>2.2286015112313682</v>
       </c>
       <c r="AE25">
@@ -22520,10 +22656,10 @@
       <c r="AI25">
         <v>2.6277040901677573</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="1">
         <v>53.366305901561468</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" s="1">
         <v>47.192122259698181</v>
       </c>
       <c r="AL25">
@@ -23291,13 +23427,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" t="s">
         <v>304</v>
-      </c>
-      <c r="C26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D26" t="s">
-        <v>306</v>
       </c>
       <c r="E26">
         <v>15.999999989999999</v>
@@ -23368,10 +23504,10 @@
       <c r="AA26">
         <v>16</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="1">
         <v>4.7055158135357456</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="1">
         <v>4.171248284918784</v>
       </c>
       <c r="AE26">
@@ -23389,10 +23525,10 @@
       <c r="AI26">
         <v>3.6438053989165788</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="1">
         <v>88.323738036248244</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="1">
         <v>87.727552458204926</v>
       </c>
       <c r="AL26">
@@ -24160,13 +24296,13 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E27">
         <v>25.149999989999998</v>
@@ -24240,10 +24376,10 @@
       <c r="AB27">
         <v>24.500000000000004</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="1">
         <v>8.3839764315476586</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="1">
         <v>2.0393747386296468</v>
       </c>
       <c r="AE27">
@@ -24261,10 +24397,10 @@
       <c r="AI27">
         <v>1.5862258908914681</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" s="1">
         <v>97.973937731422197</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" s="1">
         <v>91.993755384314341</v>
       </c>
       <c r="AL27">
@@ -25032,13 +25168,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E28">
         <v>14.849999989999999</v>
@@ -25112,10 +25248,10 @@
       <c r="AB28">
         <v>14.850000000000001</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="1">
         <v>4.4691076415972493</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="1">
         <v>4.4691076415972493</v>
       </c>
       <c r="AE28">
@@ -25130,10 +25266,10 @@
       <c r="AI28">
         <v>3.2166585842434294</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ28" s="1">
         <v>91.789315249528258</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" s="1">
         <v>91.789315249528258</v>
       </c>
       <c r="AL28">
@@ -25901,13 +26037,13 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" t="s">
         <v>307</v>
-      </c>
-      <c r="C29" t="s">
-        <v>308</v>
-      </c>
-      <c r="D29" t="s">
-        <v>309</v>
       </c>
       <c r="E29">
         <v>27.199999989999998</v>
@@ -25981,10 +26117,10 @@
       <c r="AB29">
         <v>23.800000000000004</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="1">
         <v>4.2070471047532729</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="1">
         <v>2.0814655481768369</v>
       </c>
       <c r="AE29">
@@ -26002,10 +26138,10 @@
       <c r="AI29">
         <v>1.5634046417720182</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" s="1">
         <v>93.913314260512877</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" s="1">
         <v>87.29000909444818</v>
       </c>
       <c r="AL29">
@@ -26773,13 +26909,13 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" t="s">
         <v>304</v>
-      </c>
-      <c r="C30" t="s">
-        <v>308</v>
-      </c>
-      <c r="D30" t="s">
-        <v>306</v>
       </c>
       <c r="E30">
         <v>14.04999999</v>
@@ -26853,10 +26989,10 @@
       <c r="AB30">
         <v>9.9</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="1">
         <v>1.619391193757747</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="1">
         <v>1.675448310181848</v>
       </c>
       <c r="AE30">
@@ -26871,10 +27007,10 @@
       <c r="AI30">
         <v>1.8553249989737841</v>
       </c>
-      <c r="AJ30">
+      <c r="AJ30" s="1">
         <v>58.542150399543374</v>
       </c>
-      <c r="AK30">
+      <c r="AK30" s="1">
         <v>53.543199566374838</v>
       </c>
       <c r="AL30">
@@ -27642,13 +27778,13 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E31">
         <v>12.54999999</v>
@@ -27722,10 +27858,10 @@
       <c r="AB31">
         <v>12.55</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" s="1">
         <v>3.7923287855628156</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" s="1">
         <v>1.2704473656952406</v>
       </c>
       <c r="AE31">
@@ -27740,10 +27876,10 @@
       <c r="AI31">
         <v>1.5082509444147745</v>
       </c>
-      <c r="AJ31">
+      <c r="AJ31" s="1">
         <v>61.585586043885542</v>
       </c>
-      <c r="AK31">
+      <c r="AK31" s="1">
         <v>57.147190403527993</v>
       </c>
       <c r="AL31">
@@ -28511,13 +28647,13 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E32">
         <v>6.9999999900000001</v>
@@ -28582,10 +28718,10 @@
       <c r="AA32">
         <v>7</v>
       </c>
-      <c r="AC32">
+      <c r="AC32" s="1">
         <v>0.91823136337788569</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="1">
         <v>0.91823136337788569</v>
       </c>
       <c r="AE32">
@@ -28597,10 +28733,10 @@
       <c r="AI32">
         <v>-0.88405622242240922</v>
       </c>
-      <c r="AJ32">
+      <c r="AJ32" s="1">
         <v>42.361345428307452</v>
       </c>
-      <c r="AK32">
+      <c r="AK32" s="1">
         <v>42.361345428307452</v>
       </c>
       <c r="AL32">
@@ -29281,13 +29417,13 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" t="s">
         <v>307</v>
-      </c>
-      <c r="C33" t="s">
-        <v>305</v>
-      </c>
-      <c r="D33" t="s">
-        <v>309</v>
       </c>
       <c r="E33">
         <v>22.79999999</v>
@@ -29361,10 +29497,10 @@
       <c r="AB33">
         <v>9.25</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" s="1">
         <v>-11.086036783710469</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="1">
         <v>1.0217112233695178</v>
       </c>
       <c r="AE33">
@@ -29382,10 +29518,10 @@
       <c r="AI33">
         <v>9.1760601629292143E-2</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ33" s="1">
         <v>52.796690624144652</v>
       </c>
-      <c r="AK33">
+      <c r="AK33" s="1">
         <v>39.28862336020596</v>
       </c>
       <c r="AL33">
@@ -30153,13 +30289,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" t="s">
         <v>304</v>
-      </c>
-      <c r="C34" t="s">
-        <v>308</v>
-      </c>
-      <c r="D34" t="s">
-        <v>306</v>
       </c>
       <c r="E34">
         <v>20.499999989999999</v>
@@ -30233,10 +30369,10 @@
       <c r="AB34">
         <v>19.05</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="1">
         <v>3.3343397208921646</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="1">
         <v>3.1650586085518855</v>
       </c>
       <c r="AE34">
@@ -30254,10 +30390,10 @@
       <c r="AI34">
         <v>2.1345998851493158</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ34" s="1">
         <v>88.436797923732883</v>
       </c>
-      <c r="AK34">
+      <c r="AK34" s="1">
         <v>87.077414493920998</v>
       </c>
       <c r="AL34">
@@ -31025,13 +31161,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E35">
         <v>22.599999990000001</v>
@@ -31105,10 +31241,10 @@
       <c r="AB35">
         <v>22.6</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="1">
         <v>3.8821632247736488</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="1">
         <v>2.5847584880682049</v>
       </c>
       <c r="AE35">
@@ -31126,10 +31262,10 @@
       <c r="AI35">
         <v>1.0883366523269031</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ35" s="1">
         <v>89.898029078587413</v>
       </c>
-      <c r="AK35">
+      <c r="AK35" s="1">
         <v>87.131094866904633</v>
       </c>
       <c r="AL35">
@@ -31897,13 +32033,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E36">
         <v>18.749999989999999</v>
@@ -31974,10 +32110,10 @@
       <c r="AA36">
         <v>18.75</v>
       </c>
-      <c r="AC36">
+      <c r="AC36" s="1">
         <v>2.8004735955082412</v>
       </c>
-      <c r="AD36">
+      <c r="AD36" s="1">
         <v>2.8004735955082412</v>
       </c>
       <c r="AE36">
@@ -31995,10 +32131,10 @@
       <c r="AI36">
         <v>3.1868597521051285</v>
       </c>
-      <c r="AJ36">
+      <c r="AJ36" s="1">
         <v>90.476011817202078</v>
       </c>
-      <c r="AK36">
+      <c r="AK36" s="1">
         <v>90.476011817202078</v>
       </c>
       <c r="AL36">
@@ -32766,13 +32902,13 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
+        <v>305</v>
+      </c>
+      <c r="C37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" t="s">
         <v>307</v>
-      </c>
-      <c r="C37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D37" t="s">
-        <v>309</v>
       </c>
       <c r="E37">
         <v>31.749999989999999</v>
@@ -32846,10 +32982,10 @@
       <c r="AB37">
         <v>29.85</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="1">
         <v>-1.2709213303379983</v>
       </c>
-      <c r="AD37">
+      <c r="AD37" s="1">
         <v>1.5734572648051701</v>
       </c>
       <c r="AE37">
@@ -32867,10 +33003,10 @@
       <c r="AI37">
         <v>1.3419156062472581</v>
       </c>
-      <c r="AJ37">
+      <c r="AJ37" s="1">
         <v>97.072184686021501</v>
       </c>
-      <c r="AK37">
+      <c r="AK37" s="1">
         <v>89.257378116702398</v>
       </c>
       <c r="AL37">
@@ -33638,13 +33774,13 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" t="s">
         <v>304</v>
-      </c>
-      <c r="C38" t="s">
-        <v>308</v>
-      </c>
-      <c r="D38" t="s">
-        <v>306</v>
       </c>
       <c r="E38">
         <v>18.649999989999998</v>
@@ -33718,10 +33854,10 @@
       <c r="AB38">
         <v>18.650000000000002</v>
       </c>
-      <c r="AC38">
+      <c r="AC38" s="1">
         <v>2.2371310966838571</v>
       </c>
-      <c r="AD38">
+      <c r="AD38" s="1">
         <v>2.3943921312322844</v>
       </c>
       <c r="AE38">
@@ -33739,10 +33875,10 @@
       <c r="AI38">
         <v>1.7412281680482049</v>
       </c>
-      <c r="AJ38">
+      <c r="AJ38" s="1">
         <v>79.264254272968088</v>
       </c>
-      <c r="AK38">
+      <c r="AK38" s="1">
         <v>74.363634750647478</v>
       </c>
       <c r="AL38">
@@ -34510,13 +34646,13 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E39">
         <v>23.249999989999999</v>
@@ -34590,10 +34726,10 @@
       <c r="AB39">
         <v>14.5</v>
       </c>
-      <c r="AC39">
+      <c r="AC39" s="1">
         <v>1.3955956638727878</v>
       </c>
-      <c r="AD39">
+      <c r="AD39" s="1">
         <v>2.8457547787858877</v>
       </c>
       <c r="AE39">
@@ -34611,10 +34747,10 @@
       <c r="AI39">
         <v>1.5215201947493318</v>
       </c>
-      <c r="AJ39">
+      <c r="AJ39" s="1">
         <v>88.200692369446344</v>
       </c>
-      <c r="AK39">
+      <c r="AK39" s="1">
         <v>81.343772823746505</v>
       </c>
       <c r="AL39">
@@ -35382,13 +35518,13 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E40">
         <v>10.949999989999998</v>
@@ -35459,10 +35595,10 @@
       <c r="AA40">
         <v>10.950000000000001</v>
       </c>
-      <c r="AC40">
+      <c r="AC40" s="1">
         <v>2.1457946703603277</v>
       </c>
-      <c r="AD40">
+      <c r="AD40" s="1">
         <v>2.1457946703603277</v>
       </c>
       <c r="AE40">
@@ -35477,10 +35613,10 @@
       <c r="AI40">
         <v>-6.8588187942650149E-3</v>
       </c>
-      <c r="AJ40">
+      <c r="AJ40" s="1">
         <v>70.733937721744866</v>
       </c>
-      <c r="AK40">
+      <c r="AK40" s="1">
         <v>70.733937721744866</v>
       </c>
       <c r="AL40">
@@ -36248,13 +36384,13 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" t="s">
         <v>307</v>
-      </c>
-      <c r="C41" t="s">
-        <v>305</v>
-      </c>
-      <c r="D41" t="s">
-        <v>309</v>
       </c>
       <c r="E41">
         <v>29.099999990000001</v>
@@ -36328,10 +36464,10 @@
       <c r="AB41">
         <v>15.25</v>
       </c>
-      <c r="AC41">
+      <c r="AC41" s="1">
         <v>-2.6190596458030608</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="1">
         <v>2.3363670026195331</v>
       </c>
       <c r="AE41">
@@ -36349,10 +36485,10 @@
       <c r="AI41">
         <v>-0.14909443256310828</v>
       </c>
-      <c r="AJ41">
+      <c r="AJ41" s="1">
         <v>78.893693406501029</v>
       </c>
-      <c r="AK41">
+      <c r="AK41" s="1">
         <v>70.371138307867213</v>
       </c>
       <c r="AL41">
@@ -37162,13 +37298,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" t="s">
         <v>304</v>
-      </c>
-      <c r="C42" t="s">
-        <v>308</v>
-      </c>
-      <c r="D42" t="s">
-        <v>306</v>
       </c>
       <c r="E42">
         <v>23.349999990000001</v>
@@ -37242,10 +37378,10 @@
       <c r="AB42">
         <v>23.35</v>
       </c>
-      <c r="AC42">
+      <c r="AC42" s="1">
         <v>2.4471628716805043</v>
       </c>
-      <c r="AD42">
+      <c r="AD42" s="1">
         <v>1.4619933172400297</v>
       </c>
       <c r="AE42">
@@ -37263,10 +37399,10 @@
       <c r="AI42">
         <v>1.1999393656216235</v>
       </c>
-      <c r="AJ42">
+      <c r="AJ42" s="1">
         <v>117.942240336799</v>
       </c>
-      <c r="AK42">
+      <c r="AK42" s="1">
         <v>112.91216279288338</v>
       </c>
       <c r="AL42">
@@ -38034,13 +38170,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E43">
         <v>26.54999999</v>
@@ -38114,10 +38250,10 @@
       <c r="AB43">
         <v>26.5</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="1">
         <v>3.0759764626213308</v>
       </c>
-      <c r="AD43">
+      <c r="AD43" s="1">
         <v>1.2125344937267699</v>
       </c>
       <c r="AE43">
@@ -38135,10 +38271,10 @@
       <c r="AI43">
         <v>0.98334212270426169</v>
       </c>
-      <c r="AJ43">
+      <c r="AJ43" s="1">
         <v>125.43402994181676</v>
       </c>
-      <c r="AK43">
+      <c r="AK43" s="1">
         <v>117.24014566939601</v>
       </c>
       <c r="AL43">
@@ -38948,13 +39084,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E44">
         <v>14.29999999</v>
@@ -39025,10 +39161,10 @@
       <c r="AA44">
         <v>14.3</v>
       </c>
-      <c r="AC44">
+      <c r="AC44" s="1">
         <v>2.4981755821981144</v>
       </c>
-      <c r="AD44">
+      <c r="AD44" s="1">
         <v>2.4981755821981144</v>
       </c>
       <c r="AE44">
@@ -39043,10 +39179,10 @@
       <c r="AI44">
         <v>1.6468280221533682</v>
       </c>
-      <c r="AJ44">
+      <c r="AJ44" s="1">
         <v>73.780882455438018</v>
       </c>
-      <c r="AK44">
+      <c r="AK44" s="1">
         <v>73.780882455438018</v>
       </c>
       <c r="AL44">
@@ -39814,13 +39950,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" t="s">
+        <v>303</v>
+      </c>
+      <c r="D45" t="s">
         <v>307</v>
-      </c>
-      <c r="C45" t="s">
-        <v>305</v>
-      </c>
-      <c r="D45" t="s">
-        <v>309</v>
       </c>
       <c r="E45">
         <v>34.899999989999998</v>
@@ -39894,10 +40030,10 @@
       <c r="AB45">
         <v>26.65</v>
       </c>
-      <c r="AC45">
+      <c r="AC45" s="1">
         <v>1.3291002203718516</v>
       </c>
-      <c r="AD45">
+      <c r="AD45" s="1">
         <v>1.1245546972374858</v>
       </c>
       <c r="AE45">
@@ -39915,10 +40051,10 @@
       <c r="AI45">
         <v>0.77018142444609361</v>
       </c>
-      <c r="AJ45">
+      <c r="AJ45" s="1">
         <v>113.60258413624095</v>
       </c>
-      <c r="AK45">
+      <c r="AK45" s="1">
         <v>101.70413031108785</v>
       </c>
       <c r="AL45">
@@ -40728,13 +40864,13 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" t="s">
         <v>304</v>
-      </c>
-      <c r="C46" t="s">
-        <v>305</v>
-      </c>
-      <c r="D46" t="s">
-        <v>306</v>
       </c>
       <c r="E46">
         <v>6.7999999899999999</v>
@@ -40799,10 +40935,10 @@
       <c r="AA46">
         <v>6.8000000000000007</v>
       </c>
-      <c r="AC46">
+      <c r="AC46" s="1">
         <v>2.9896248459763273</v>
       </c>
-      <c r="AD46">
+      <c r="AD46" s="1">
         <v>2.9896248459763273</v>
       </c>
       <c r="AE46">
@@ -40814,10 +40950,10 @@
       <c r="AI46">
         <v>1.3275551785351993</v>
       </c>
-      <c r="AJ46">
+      <c r="AJ46" s="1">
         <v>46.041027245480755</v>
       </c>
-      <c r="AK46">
+      <c r="AK46" s="1">
         <v>46.041027245480755</v>
       </c>
       <c r="AL46">
@@ -41462,13 +41598,13 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D47" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E47">
         <v>15.849999989999999</v>
@@ -41539,10 +41675,10 @@
       <c r="AA47">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AC47">
+      <c r="AC47" s="1">
         <v>4.8610654392147215</v>
       </c>
-      <c r="AD47">
+      <c r="AD47" s="1">
         <v>1.2900829945886512</v>
       </c>
       <c r="AE47">
@@ -41560,10 +41696,10 @@
       <c r="AI47">
         <v>0.26529680768599362</v>
       </c>
-      <c r="AJ47">
+      <c r="AJ47" s="1">
         <v>56.146457562209967</v>
       </c>
-      <c r="AK47">
+      <c r="AK47" s="1">
         <v>52.235089955064801</v>
       </c>
       <c r="AL47">
@@ -42373,13 +42509,13 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E48">
         <v>13.14999999</v>
@@ -42453,10 +42589,10 @@
       <c r="AB48">
         <v>12.65</v>
       </c>
-      <c r="AC48">
+      <c r="AC48" s="1">
         <v>4.9573824710054133</v>
       </c>
-      <c r="AD48">
+      <c r="AD48" s="1">
         <v>1.8863857778784647</v>
       </c>
       <c r="AE48">
@@ -42471,10 +42607,10 @@
       <c r="AI48">
         <v>2.0539315085490997</v>
       </c>
-      <c r="AJ48">
+      <c r="AJ48" s="1">
         <v>48.45541746180853</v>
       </c>
-      <c r="AK48">
+      <c r="AK48" s="1">
         <v>44.108306999443712</v>
       </c>
       <c r="AL48">
@@ -43242,13 +43378,13 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" t="s">
         <v>307</v>
-      </c>
-      <c r="C49" t="s">
-        <v>308</v>
-      </c>
-      <c r="D49" t="s">
-        <v>309</v>
       </c>
       <c r="E49">
         <v>16.29999999</v>
@@ -43322,10 +43458,10 @@
       <c r="AB49">
         <v>16.3</v>
       </c>
-      <c r="AC49">
+      <c r="AC49" s="1">
         <v>12.114776398951328</v>
       </c>
-      <c r="AD49">
+      <c r="AD49" s="1">
         <v>1.5572618534879519</v>
       </c>
       <c r="AE49">
@@ -43343,10 +43479,10 @@
       <c r="AI49">
         <v>1.1233234993329491</v>
       </c>
-      <c r="AJ49">
+      <c r="AJ49" s="1">
         <v>42.948562510720315</v>
       </c>
-      <c r="AK49">
+      <c r="AK49" s="1">
         <v>35.696381046144026</v>
       </c>
       <c r="AL49">
@@ -44114,13 +44250,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
+        <v>302</v>
+      </c>
+      <c r="C50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" t="s">
         <v>304</v>
-      </c>
-      <c r="C50" t="s">
-        <v>308</v>
-      </c>
-      <c r="D50" t="s">
-        <v>306</v>
       </c>
       <c r="E50">
         <v>16.149999989999998</v>
@@ -44194,10 +44330,10 @@
       <c r="AB50">
         <v>16.150000000000002</v>
       </c>
-      <c r="AC50">
+      <c r="AC50" s="1">
         <v>3.8933523476778586</v>
       </c>
-      <c r="AD50">
+      <c r="AD50" s="1">
         <v>2.7124978602806276</v>
       </c>
       <c r="AE50">
@@ -44215,10 +44351,10 @@
       <c r="AI50">
         <v>2.8842702637097206</v>
       </c>
-      <c r="AJ50">
+      <c r="AJ50" s="1">
         <v>67.344776239205189</v>
       </c>
-      <c r="AK50">
+      <c r="AK50" s="1">
         <v>65.750387550723019</v>
       </c>
       <c r="AL50">
@@ -44986,13 +45122,13 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E51">
         <v>16.949999989999998</v>
@@ -45066,10 +45202,10 @@
       <c r="AB51">
         <v>13.6</v>
       </c>
-      <c r="AC51">
+      <c r="AC51" s="1">
         <v>3.1519855525993528</v>
       </c>
-      <c r="AD51">
+      <c r="AD51" s="1">
         <v>2.1688898685904157</v>
       </c>
       <c r="AE51">
@@ -45087,10 +45223,10 @@
       <c r="AI51">
         <v>1.5895270811980564</v>
       </c>
-      <c r="AJ51">
+      <c r="AJ51" s="1">
         <v>67.458618022144321</v>
       </c>
-      <c r="AK51">
+      <c r="AK51" s="1">
         <v>65.129723749514454</v>
       </c>
       <c r="AL51">
@@ -45858,13 +45994,13 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E52">
         <v>11.949999989999998</v>
@@ -45935,10 +46071,10 @@
       <c r="AA52">
         <v>11.950000000000001</v>
       </c>
-      <c r="AC52">
+      <c r="AC52" s="1">
         <v>2.4520921537329547</v>
       </c>
-      <c r="AD52">
+      <c r="AD52" s="1">
         <v>2.4520921537329547</v>
       </c>
       <c r="AE52">
@@ -45953,10 +46089,10 @@
       <c r="AI52">
         <v>2.259022874536555</v>
       </c>
-      <c r="AJ52">
+      <c r="AJ52" s="1">
         <v>63.376823636007849</v>
       </c>
-      <c r="AK52">
+      <c r="AK52" s="1">
         <v>63.376823636007849</v>
       </c>
       <c r="AL52">
@@ -46724,13 +46860,13 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
+        <v>305</v>
+      </c>
+      <c r="C53" t="s">
+        <v>303</v>
+      </c>
+      <c r="D53" t="s">
         <v>307</v>
-      </c>
-      <c r="C53" t="s">
-        <v>305</v>
-      </c>
-      <c r="D53" t="s">
-        <v>309</v>
       </c>
       <c r="E53">
         <v>19.749999989999999</v>
@@ -46804,10 +46940,10 @@
       <c r="AB53">
         <v>11.65</v>
       </c>
-      <c r="AC53">
+      <c r="AC53" s="1">
         <v>5.4989713287523312</v>
       </c>
-      <c r="AD53">
+      <c r="AD53" s="1">
         <v>2.7035740920921256</v>
       </c>
       <c r="AE53">
@@ -46825,10 +46961,10 @@
       <c r="AI53">
         <v>2.1754778160541308</v>
       </c>
-      <c r="AJ53">
+      <c r="AJ53" s="1">
         <v>56.885593320393248</v>
       </c>
-      <c r="AK53">
+      <c r="AK53" s="1">
         <v>52.717170717960137</v>
       </c>
       <c r="AL53">
@@ -47596,13 +47732,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54" t="s">
         <v>304</v>
-      </c>
-      <c r="C54" t="s">
-        <v>305</v>
-      </c>
-      <c r="D54" t="s">
-        <v>306</v>
       </c>
       <c r="E54">
         <v>15.349999989999999</v>
@@ -47676,10 +47812,10 @@
       <c r="AB54">
         <v>12.750000000000002</v>
       </c>
-      <c r="AC54">
+      <c r="AC54" s="1">
         <v>-1.4336476116848149</v>
       </c>
-      <c r="AD54">
+      <c r="AD54" s="1">
         <v>0.50701638836920915</v>
       </c>
       <c r="AE54">
@@ -47697,10 +47833,10 @@
       <c r="AI54">
         <v>0.1643944602770846</v>
       </c>
-      <c r="AJ54">
+      <c r="AJ54" s="1">
         <v>37.311984097196024</v>
       </c>
-      <c r="AK54">
+      <c r="AK54" s="1">
         <v>35.006802921838243</v>
       </c>
       <c r="AL54">
@@ -48510,13 +48646,13 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C55" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D55" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E55">
         <v>13.249999989999999</v>
@@ -48587,10 +48723,10 @@
       <c r="AA55">
         <v>13.25</v>
       </c>
-      <c r="AC55">
+      <c r="AC55" s="1">
         <v>-3.3017575499733665E-2</v>
       </c>
-      <c r="AD55">
+      <c r="AD55" s="1">
         <v>0.4493171264752655</v>
       </c>
       <c r="AE55">
@@ -48605,10 +48741,10 @@
       <c r="AI55">
         <v>9.7520521263629673E-2</v>
       </c>
-      <c r="AJ55">
+      <c r="AJ55" s="1">
         <v>40.905546211596644</v>
       </c>
-      <c r="AK55">
+      <c r="AK55" s="1">
         <v>38.816475144593959</v>
       </c>
       <c r="AL55">
@@ -49376,13 +49512,13 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E56">
         <v>6.8499999899999997</v>
@@ -49450,10 +49586,10 @@
       <c r="AB56">
         <v>6.8500000000000005</v>
       </c>
-      <c r="AC56">
+      <c r="AC56" s="1">
         <v>0.91898135772864997</v>
       </c>
-      <c r="AD56">
+      <c r="AD56" s="1">
         <v>0.91898135772864997</v>
       </c>
       <c r="AE56">
@@ -49465,10 +49601,10 @@
       <c r="AI56">
         <v>0.95977741740951783</v>
       </c>
-      <c r="AJ56">
+      <c r="AJ56" s="1">
         <v>43.216688849896073</v>
       </c>
-      <c r="AK56">
+      <c r="AK56" s="1">
         <v>43.216688849896073</v>
       </c>
       <c r="AL56">
@@ -50113,13 +50249,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D57" t="s">
         <v>307</v>
-      </c>
-      <c r="C57" t="s">
-        <v>308</v>
-      </c>
-      <c r="D57" t="s">
-        <v>309</v>
       </c>
       <c r="E57">
         <v>23.79999999</v>
@@ -50193,10 +50329,10 @@
       <c r="AB57">
         <v>12.3</v>
       </c>
-      <c r="AC57">
+      <c r="AC57" s="1">
         <v>-3.156005243781411</v>
       </c>
-      <c r="AD57">
+      <c r="AD57" s="1">
         <v>0.67860100959475234</v>
       </c>
       <c r="AE57">
@@ -50214,10 +50350,10 @@
       <c r="AI57">
         <v>1.0173689221134952</v>
       </c>
-      <c r="AJ57">
+      <c r="AJ57" s="1">
         <v>54.251121577857198</v>
       </c>
-      <c r="AK57">
+      <c r="AK57" s="1">
         <v>45.188359670361415</v>
       </c>
       <c r="AL57">
@@ -50985,13 +51121,13 @@
         <v>18</v>
       </c>
       <c r="B58" t="s">
+        <v>302</v>
+      </c>
+      <c r="C58" t="s">
+        <v>306</v>
+      </c>
+      <c r="D58" t="s">
         <v>304</v>
-      </c>
-      <c r="C58" t="s">
-        <v>308</v>
-      </c>
-      <c r="D58" t="s">
-        <v>306</v>
       </c>
       <c r="E58">
         <v>10.599999989999999</v>
@@ -51062,10 +51198,10 @@
       <c r="AB58">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AC58">
+      <c r="AC58" s="1">
         <v>5.4109907060924183</v>
       </c>
-      <c r="AD58">
+      <c r="AD58" s="1">
         <v>5.4109907060924183</v>
       </c>
       <c r="AE58">
@@ -51080,10 +51216,10 @@
       <c r="AI58">
         <v>7.8829970371057145</v>
       </c>
-      <c r="AJ58">
+      <c r="AJ58" s="1">
         <v>40.130791332821317</v>
       </c>
-      <c r="AK58">
+      <c r="AK58" s="1">
         <v>40.130791332821317</v>
       </c>
       <c r="AL58">
@@ -51893,13 +52029,13 @@
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E59">
         <v>15.04999999</v>
@@ -51970,10 +52106,10 @@
       <c r="AB59">
         <v>15.05</v>
       </c>
-      <c r="AC59">
+      <c r="AC59" s="1">
         <v>3.303765464149059</v>
       </c>
-      <c r="AD59">
+      <c r="AD59" s="1">
         <v>1.9042128115536039</v>
       </c>
       <c r="AE59">
@@ -51991,10 +52127,10 @@
       <c r="AI59">
         <v>1.0485997411951138</v>
       </c>
-      <c r="AJ59">
+      <c r="AJ59" s="1">
         <v>34.401035084561784</v>
       </c>
-      <c r="AK59">
+      <c r="AK59" s="1">
         <v>31.619791093359471</v>
       </c>
       <c r="AL59">
@@ -52804,13 +52940,13 @@
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D60" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E60">
         <v>12.849999989999999</v>
@@ -52884,10 +53020,10 @@
       <c r="AB60">
         <v>8.9500000000000011</v>
       </c>
-      <c r="AC60">
+      <c r="AC60" s="1">
         <v>6.4967621351074616</v>
       </c>
-      <c r="AD60">
+      <c r="AD60" s="1">
         <v>5.0652657521921007</v>
       </c>
       <c r="AE60">
@@ -52902,10 +53038,10 @@
       <c r="AI60">
         <v>6.2601799719720717</v>
       </c>
-      <c r="AJ60">
+      <c r="AJ60" s="1">
         <v>36.156327706550428</v>
       </c>
-      <c r="AK60">
+      <c r="AK60" s="1">
         <v>34.858790448488904</v>
       </c>
       <c r="AL60">
@@ -53673,13 +53809,13 @@
         <v>18</v>
       </c>
       <c r="B61" t="s">
+        <v>305</v>
+      </c>
+      <c r="C61" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" t="s">
         <v>307</v>
-      </c>
-      <c r="C61" t="s">
-        <v>305</v>
-      </c>
-      <c r="D61" t="s">
-        <v>309</v>
       </c>
       <c r="E61">
         <v>21.649999989999998</v>
@@ -53753,10 +53889,10 @@
       <c r="AB61">
         <v>11.950000000000001</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="1">
         <v>8.3773683786353814</v>
       </c>
-      <c r="AD61">
+      <c r="AD61" s="1">
         <v>2.7982951871495949</v>
       </c>
       <c r="AE61">
@@ -53774,10 +53910,10 @@
       <c r="AI61">
         <v>2.3624566647609919</v>
       </c>
-      <c r="AJ61">
+      <c r="AJ61" s="1">
         <v>41.292748170691588</v>
       </c>
-      <c r="AK61">
+      <c r="AK61" s="1">
         <v>34.011577205354868</v>
       </c>
       <c r="AL61">
@@ -54545,13 +54681,13 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" t="s">
         <v>304</v>
-      </c>
-      <c r="C62" t="s">
-        <v>308</v>
-      </c>
-      <c r="D62" t="s">
-        <v>306</v>
       </c>
       <c r="E62">
         <v>11.89999999</v>
@@ -54622,10 +54758,10 @@
       <c r="AB62">
         <v>10</v>
       </c>
-      <c r="AC62">
+      <c r="AC62" s="1">
         <v>0.99039027675066627</v>
       </c>
-      <c r="AD62">
+      <c r="AD62" s="1">
         <v>1.0448257337526587</v>
       </c>
       <c r="AE62">
@@ -54640,10 +54776,10 @@
       <c r="AI62">
         <v>0.33967396068293021</v>
       </c>
-      <c r="AJ62">
+      <c r="AJ62" s="1">
         <v>36.789134681082572</v>
       </c>
-      <c r="AK62">
+      <c r="AK62" s="1">
         <v>35.064195039182295</v>
       </c>
       <c r="AL62">
@@ -55453,13 +55589,13 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C63" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E63">
         <v>9.7999999899999999</v>
@@ -55524,10 +55660,10 @@
       <c r="AB63">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AC63">
+      <c r="AC63" s="1">
         <v>0.90602671378352262</v>
       </c>
-      <c r="AD63">
+      <c r="AD63" s="1">
         <v>0.90602671378352262</v>
       </c>
       <c r="AE63">
@@ -55539,10 +55675,10 @@
       <c r="AI63">
         <v>1.0333927058233441</v>
       </c>
-      <c r="AJ63">
+      <c r="AJ63" s="1">
         <v>26.546448903398286</v>
       </c>
-      <c r="AK63">
+      <c r="AK63" s="1">
         <v>26.546448903398286</v>
       </c>
       <c r="AL63">
@@ -56247,13 +56383,13 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E64">
         <v>11.449999989999998</v>
@@ -56327,10 +56463,10 @@
       <c r="AB64">
         <v>6.65</v>
       </c>
-      <c r="AC64">
+      <c r="AC64" s="1">
         <v>1.7811008545021827</v>
       </c>
-      <c r="AD64">
+      <c r="AD64" s="1">
         <v>1.6740188130731473</v>
       </c>
       <c r="AE64">
@@ -56345,10 +56481,10 @@
       <c r="AI64">
         <v>1.6639570703423805</v>
       </c>
-      <c r="AJ64">
+      <c r="AJ64" s="1">
         <v>41.417167427766415</v>
       </c>
-      <c r="AK64">
+      <c r="AK64" s="1">
         <v>40.520226088590668</v>
       </c>
       <c r="AL64">
@@ -57116,13 +57252,13 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
+        <v>305</v>
+      </c>
+      <c r="C65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" t="s">
         <v>307</v>
-      </c>
-      <c r="C65" t="s">
-        <v>305</v>
-      </c>
-      <c r="D65" t="s">
-        <v>309</v>
       </c>
       <c r="E65">
         <v>12.79999999</v>
@@ -57196,10 +57332,10 @@
       <c r="AB65">
         <v>9.4</v>
       </c>
-      <c r="AC65">
+      <c r="AC65" s="1">
         <v>1.0258947389165547</v>
       </c>
-      <c r="AD65">
+      <c r="AD65" s="1">
         <v>1.0370120302321495</v>
       </c>
       <c r="AE65">
@@ -57214,10 +57350,10 @@
       <c r="AI65">
         <v>0.64605028313127644</v>
       </c>
-      <c r="AJ65">
+      <c r="AJ65" s="1">
         <v>44.084483442984585</v>
       </c>
-      <c r="AK65">
+      <c r="AK65" s="1">
         <v>42.367199794534066</v>
       </c>
       <c r="AL65">
@@ -57985,13 +58121,13 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" t="s">
+        <v>303</v>
+      </c>
+      <c r="D66" t="s">
         <v>304</v>
-      </c>
-      <c r="C66" t="s">
-        <v>305</v>
-      </c>
-      <c r="D66" t="s">
-        <v>306</v>
       </c>
       <c r="E66">
         <v>7.2999999899999999</v>
@@ -58059,10 +58195,10 @@
       <c r="AB66">
         <v>0</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" s="1">
         <v>1.9782656480809671</v>
       </c>
-      <c r="AD66">
+      <c r="AD66" s="1">
         <v>1.9782656480809671</v>
       </c>
       <c r="AE66">
@@ -58074,10 +58210,10 @@
       <c r="AI66">
         <v>-1.1332212350338631</v>
       </c>
-      <c r="AJ66">
+      <c r="AJ66" s="1">
         <v>45.407415271843917</v>
       </c>
-      <c r="AK66">
+      <c r="AK66" s="1">
         <v>45.407415271843917</v>
       </c>
       <c r="AL66">
@@ -58758,13 +58894,13 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D67" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E67">
         <v>16.349999990000001</v>
@@ -58838,10 +58974,10 @@
       <c r="AB67">
         <v>2.1</v>
       </c>
-      <c r="AC67">
+      <c r="AC67" s="1">
         <v>-3.6171979121704227</v>
       </c>
-      <c r="AD67">
+      <c r="AD67" s="1">
         <v>0.88736647483774012</v>
       </c>
       <c r="AE67">
@@ -58859,10 +58995,10 @@
       <c r="AI67">
         <v>-0.29052747393742212</v>
       </c>
-      <c r="AJ67">
+      <c r="AJ67" s="1">
         <v>48.242823015584754</v>
       </c>
-      <c r="AK67">
+      <c r="AK67" s="1">
         <v>43.068835114522869</v>
       </c>
       <c r="AL67">
@@ -59630,13 +59766,13 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C68" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E68">
         <v>17.04999999</v>
@@ -59707,10 +59843,10 @@
       <c r="AB68">
         <v>10.95</v>
       </c>
-      <c r="AC68">
+      <c r="AC68" s="1">
         <v>1.8422902275881341</v>
       </c>
-      <c r="AD68">
+      <c r="AD68" s="1">
         <v>0.93480250735384607</v>
       </c>
       <c r="AE68">
@@ -59728,10 +59864,10 @@
       <c r="AI68">
         <v>0.87790321000790184</v>
       </c>
-      <c r="AJ68">
+      <c r="AJ68" s="1">
         <v>55.236951147136232</v>
       </c>
-      <c r="AK68">
+      <c r="AK68" s="1">
         <v>48.834862819813353</v>
       </c>
       <c r="AL68">
@@ -60541,13 +60677,13 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" t="s">
+        <v>306</v>
+      </c>
+      <c r="D69" t="s">
         <v>307</v>
-      </c>
-      <c r="C69" t="s">
-        <v>308</v>
-      </c>
-      <c r="D69" t="s">
-        <v>309</v>
       </c>
       <c r="E69">
         <v>13.599999989999999</v>
@@ -60618,10 +60754,10 @@
       <c r="AB69">
         <v>13.600000000000001</v>
       </c>
-      <c r="AC69">
+      <c r="AC69" s="1">
         <v>0.49111667770418083</v>
       </c>
-      <c r="AD69">
+      <c r="AD69" s="1">
         <v>0.87324586579200647</v>
       </c>
       <c r="AE69">
@@ -60636,10 +60772,10 @@
       <c r="AI69">
         <v>1.2298562842411607</v>
       </c>
-      <c r="AJ69">
+      <c r="AJ69" s="1">
         <v>47.447021462704839</v>
       </c>
-      <c r="AK69">
+      <c r="AK69" s="1">
         <v>42.816065491998877</v>
       </c>
       <c r="AL69">
@@ -61407,13 +61543,13 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
+        <v>302</v>
+      </c>
+      <c r="C70" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" t="s">
         <v>304</v>
-      </c>
-      <c r="C70" t="s">
-        <v>308</v>
-      </c>
-      <c r="D70" t="s">
-        <v>306</v>
       </c>
       <c r="E70">
         <v>8.2999999899999999</v>
@@ -61481,10 +61617,10 @@
       <c r="AB70">
         <v>4.9500000000000011</v>
       </c>
-      <c r="AC70">
+      <c r="AC70" s="1">
         <v>1.4520260412398587</v>
       </c>
-      <c r="AD70">
+      <c r="AD70" s="1">
         <v>3.3648269399369957</v>
       </c>
       <c r="AE70">
@@ -61496,10 +61632,10 @@
       <c r="AI70">
         <v>1.2358655667152996</v>
       </c>
-      <c r="AJ70">
+      <c r="AJ70" s="1">
         <v>62.846133654499667</v>
       </c>
-      <c r="AK70">
+      <c r="AK70" s="1">
         <v>62.029073220741552</v>
       </c>
       <c r="AL70">
@@ -62162,13 +62298,13 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E71">
         <v>10.449999989999998</v>
@@ -62242,10 +62378,10 @@
       <c r="AB71">
         <v>10.450000000000001</v>
       </c>
-      <c r="AC71">
+      <c r="AC71" s="1">
         <v>5.5829688430293087</v>
       </c>
-      <c r="AD71">
+      <c r="AD71" s="1">
         <v>3.763597010030117</v>
       </c>
       <c r="AE71">
@@ -62260,10 +62396,10 @@
       <c r="AI71">
         <v>5.3356526268779385</v>
       </c>
-      <c r="AJ71">
+      <c r="AJ71" s="1">
         <v>63.397659387854411</v>
       </c>
-      <c r="AK71">
+      <c r="AK71" s="1">
         <v>60.30500745952051</v>
       </c>
       <c r="AL71">
@@ -63031,13 +63167,13 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C72" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D72" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E72">
         <v>7.0999999899999997</v>
@@ -63102,10 +63238,10 @@
       <c r="AA72">
         <v>5.25</v>
       </c>
-      <c r="AC72">
+      <c r="AC72" s="1">
         <v>3.393935123553129</v>
       </c>
-      <c r="AD72">
+      <c r="AD72" s="1">
         <v>3.393935123553129</v>
       </c>
       <c r="AE72">
@@ -63117,10 +63253,10 @@
       <c r="AI72">
         <v>4.2208407743004539</v>
       </c>
-      <c r="AJ72">
+      <c r="AJ72" s="1">
         <v>56.998148888372299</v>
       </c>
-      <c r="AK72">
+      <c r="AK72" s="1">
         <v>56.998148888372299</v>
       </c>
       <c r="AL72">
@@ -63765,13 +63901,13 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" t="s">
         <v>307</v>
-      </c>
-      <c r="C73" t="s">
-        <v>305</v>
-      </c>
-      <c r="D73" t="s">
-        <v>309</v>
       </c>
       <c r="E73">
         <v>7.9499999900000002</v>
@@ -63836,10 +63972,10 @@
       <c r="AA73">
         <v>7.95</v>
       </c>
-      <c r="AC73">
+      <c r="AC73" s="1">
         <v>1.9523870951319813</v>
       </c>
-      <c r="AD73">
+      <c r="AD73" s="1">
         <v>1.9754805464473</v>
       </c>
       <c r="AE73">
@@ -63851,10 +63987,10 @@
       <c r="AI73">
         <v>0.55036088395099703</v>
       </c>
-      <c r="AJ73">
+      <c r="AJ73" s="1">
         <v>58.019097937634577</v>
       </c>
-      <c r="AK73">
+      <c r="AK73" s="1">
         <v>57.407271551109183</v>
       </c>
       <c r="AL73">
@@ -64499,13 +64635,13 @@
         <v>22</v>
       </c>
       <c r="B74" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" t="s">
         <v>304</v>
-      </c>
-      <c r="C74" t="s">
-        <v>305</v>
-      </c>
-      <c r="D74" t="s">
-        <v>306</v>
       </c>
       <c r="E74">
         <v>5.4499999900000002</v>
@@ -64570,10 +64706,10 @@
       <c r="AA74">
         <v>5.45</v>
       </c>
-      <c r="AC74">
+      <c r="AC74" s="1">
         <v>1.0775845119706198</v>
       </c>
-      <c r="AD74">
+      <c r="AD74" s="1">
         <v>1.0775845119706198</v>
       </c>
       <c r="AE74">
@@ -64585,10 +64721,10 @@
       <c r="AI74">
         <v>-0.33518494694506806</v>
       </c>
-      <c r="AJ74">
+      <c r="AJ74" s="1">
         <v>62.684067137060971</v>
       </c>
-      <c r="AK74">
+      <c r="AK74" s="1">
         <v>62.684067137060971</v>
       </c>
       <c r="AL74">
@@ -65233,13 +65369,13 @@
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D75" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E75">
         <v>25.499999989999999</v>
@@ -65313,10 +65449,10 @@
       <c r="AB75">
         <v>10.700000000000001</v>
       </c>
-      <c r="AC75">
+      <c r="AC75" s="1">
         <v>84.350960775010705</v>
       </c>
-      <c r="AD75">
+      <c r="AD75" s="1">
         <v>1.7859172641396837</v>
       </c>
       <c r="AE75">
@@ -65334,10 +65470,10 @@
       <c r="AI75">
         <v>0.29927658560010167</v>
       </c>
-      <c r="AJ75">
+      <c r="AJ75" s="1">
         <v>78.8548233195189</v>
       </c>
-      <c r="AK75">
+      <c r="AK75" s="1">
         <v>63.878771681084856</v>
       </c>
       <c r="AL75">
@@ -66105,13 +66241,13 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E76">
         <v>8.5999999899999988</v>
@@ -66179,10 +66315,10 @@
       <c r="AB76">
         <v>8.6</v>
       </c>
-      <c r="AC76">
+      <c r="AC76" s="1">
         <v>3.0640271372781482</v>
       </c>
-      <c r="AD76">
+      <c r="AD76" s="1">
         <v>1.7102405319448133</v>
       </c>
       <c r="AE76">
@@ -66194,10 +66330,10 @@
       <c r="AI76">
         <v>0.46166493208851389</v>
       </c>
-      <c r="AJ76">
+      <c r="AJ76" s="1">
         <v>81.415905580418553</v>
       </c>
-      <c r="AK76">
+      <c r="AK76" s="1">
         <v>80.046331036894415</v>
       </c>
       <c r="AL76">
@@ -66842,13 +66978,13 @@
         <v>22</v>
       </c>
       <c r="B77" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" t="s">
         <v>307</v>
-      </c>
-      <c r="C77" t="s">
-        <v>308</v>
-      </c>
-      <c r="D77" t="s">
-        <v>309</v>
       </c>
       <c r="E77">
         <v>24.499999989999999</v>
@@ -66922,10 +67058,10 @@
       <c r="AB77">
         <v>14.85</v>
       </c>
-      <c r="AC77">
+      <c r="AC77" s="1">
         <v>6.2370366166547075</v>
       </c>
-      <c r="AD77">
+      <c r="AD77" s="1">
         <v>1.0159187983779432</v>
       </c>
       <c r="AE77">
@@ -66943,10 +67079,10 @@
       <c r="AI77">
         <v>0.33293386827998273</v>
       </c>
-      <c r="AJ77">
+      <c r="AJ77" s="1">
         <v>94.331928941077294</v>
       </c>
-      <c r="AK77">
+      <c r="AK77" s="1">
         <v>80.653673427812251</v>
       </c>
       <c r="AL77">
@@ -67714,13 +67850,13 @@
         <v>24</v>
       </c>
       <c r="B78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C78" t="s">
+        <v>303</v>
+      </c>
+      <c r="D78" t="s">
         <v>304</v>
-      </c>
-      <c r="C78" t="s">
-        <v>305</v>
-      </c>
-      <c r="D78" t="s">
-        <v>306</v>
       </c>
       <c r="E78">
         <v>7.9999999900000001</v>
@@ -67788,10 +67924,10 @@
       <c r="AB78">
         <v>4.4499999999999993</v>
       </c>
-      <c r="AC78">
+      <c r="AC78" s="1">
         <v>4.131281928614472</v>
       </c>
-      <c r="AD78">
+      <c r="AD78" s="1">
         <v>2.318197679180269</v>
       </c>
       <c r="AE78">
@@ -67803,10 +67939,10 @@
       <c r="AI78">
         <v>5.2343898059068019</v>
       </c>
-      <c r="AJ78">
+      <c r="AJ78" s="1">
         <v>53.408533253805238</v>
       </c>
-      <c r="AK78">
+      <c r="AK78" s="1">
         <v>52.375808513891734</v>
       </c>
       <c r="AL78">
@@ -68487,13 +68623,13 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E79">
         <v>9.1999999899999985</v>
@@ -68558,10 +68694,10 @@
       <c r="AA79">
         <v>9.2000000000000011</v>
       </c>
-      <c r="AC79">
+      <c r="AC79" s="1">
         <v>1.3254485270262524</v>
       </c>
-      <c r="AD79">
+      <c r="AD79" s="1">
         <v>0.5875213542034472</v>
       </c>
       <c r="AE79">
@@ -68573,10 +68709,10 @@
       <c r="AI79">
         <v>0.38398316178232855</v>
       </c>
-      <c r="AJ79">
+      <c r="AJ79" s="1">
         <v>55.142711430352612</v>
       </c>
-      <c r="AK79">
+      <c r="AK79" s="1">
         <v>53.723853086422487</v>
       </c>
       <c r="AL79">
@@ -69257,13 +69393,13 @@
         <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E80">
         <v>5.7999999899999999</v>
@@ -69331,10 +69467,10 @@
       <c r="AB80">
         <v>1.5999999999999999</v>
       </c>
-      <c r="AC80">
+      <c r="AC80" s="1">
         <v>1.6296269771103935</v>
       </c>
-      <c r="AD80">
+      <c r="AD80" s="1">
         <v>1.6296269771103935</v>
       </c>
       <c r="AE80">
@@ -69346,10 +69482,10 @@
       <c r="AI80">
         <v>3.1212769985854911</v>
       </c>
-      <c r="AJ80">
+      <c r="AJ80" s="1">
         <v>71.714865114334799</v>
       </c>
-      <c r="AK80">
+      <c r="AK80" s="1">
         <v>71.714865114334799</v>
       </c>
       <c r="AL80">
@@ -70030,13 +70166,13 @@
         <v>24</v>
       </c>
       <c r="B81" t="s">
+        <v>305</v>
+      </c>
+      <c r="C81" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" t="s">
         <v>307</v>
-      </c>
-      <c r="C81" t="s">
-        <v>308</v>
-      </c>
-      <c r="D81" t="s">
-        <v>309</v>
       </c>
       <c r="E81">
         <v>12.599999989999999</v>
@@ -70110,10 +70246,10 @@
       <c r="AB81">
         <v>12.600000000000001</v>
       </c>
-      <c r="AC81">
+      <c r="AC81" s="1">
         <v>2.755053893727323</v>
       </c>
-      <c r="AD81">
+      <c r="AD81" s="1">
         <v>0.64342164272552071</v>
       </c>
       <c r="AE81">
@@ -70128,10 +70264,10 @@
       <c r="AI81">
         <v>0.70310638363974198</v>
       </c>
-      <c r="AJ81">
+      <c r="AJ81" s="1">
         <v>72.667104640660341</v>
       </c>
-      <c r="AK81">
+      <c r="AK81" s="1">
         <v>68.976918300147375</v>
       </c>
       <c r="AL81">
@@ -70899,13 +71035,13 @@
         <v>25</v>
       </c>
       <c r="B82" t="s">
+        <v>302</v>
+      </c>
+      <c r="C82" t="s">
+        <v>306</v>
+      </c>
+      <c r="D82" t="s">
         <v>304</v>
-      </c>
-      <c r="C82" t="s">
-        <v>308</v>
-      </c>
-      <c r="D82" t="s">
-        <v>306</v>
       </c>
       <c r="E82">
         <v>14.449999989999998</v>
@@ -70979,10 +71115,10 @@
       <c r="AB82">
         <v>13.500000000000002</v>
       </c>
-      <c r="AC82">
+      <c r="AC82" s="1">
         <v>18.711143587527957</v>
       </c>
-      <c r="AD82">
+      <c r="AD82" s="1">
         <v>2.5008986789617742</v>
       </c>
       <c r="AE82">
@@ -70997,10 +71133,10 @@
       <c r="AI82">
         <v>0.84704527521247563</v>
       </c>
-      <c r="AJ82">
+      <c r="AJ82" s="1">
         <v>65.222257437655145</v>
       </c>
-      <c r="AK82">
+      <c r="AK82" s="1">
         <v>59.132960986873897</v>
       </c>
       <c r="AL82">
@@ -71810,13 +71946,13 @@
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C83" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D83" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E83">
         <v>14.249999989999999</v>
@@ -71890,10 +72026,10 @@
       <c r="AB83">
         <v>14.25</v>
       </c>
-      <c r="AC83">
+      <c r="AC83" s="1">
         <v>9.9796028120398432</v>
       </c>
-      <c r="AD83">
+      <c r="AD83" s="1">
         <v>2.5909532368181489</v>
       </c>
       <c r="AE83">
@@ -71908,10 +72044,10 @@
       <c r="AI83">
         <v>1.1403428506095952</v>
       </c>
-      <c r="AJ83">
+      <c r="AJ83" s="1">
         <v>62.532674390220663</v>
       </c>
-      <c r="AK83">
+      <c r="AK83" s="1">
         <v>55.637390503617219</v>
       </c>
       <c r="AL83">
@@ -72679,13 +72815,13 @@
         <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E84">
         <v>5.2999999899999999</v>
@@ -72750,10 +72886,10 @@
       <c r="AA84">
         <v>5.3000000000000007</v>
       </c>
-      <c r="AC84">
+      <c r="AC84" s="1">
         <v>3.7473429876717024</v>
       </c>
-      <c r="AD84">
+      <c r="AD84" s="1">
         <v>3.7473429876717024</v>
       </c>
       <c r="AE84">
@@ -72765,10 +72901,10 @@
       <c r="AI84">
         <v>6.7408164051032564</v>
       </c>
-      <c r="AJ84">
+      <c r="AJ84" s="1">
         <v>47.357886781601749</v>
       </c>
-      <c r="AK84">
+      <c r="AK84" s="1">
         <v>47.357886781601749</v>
       </c>
       <c r="AL84">
@@ -73449,13 +73585,13 @@
         <v>25</v>
       </c>
       <c r="B85" t="s">
+        <v>305</v>
+      </c>
+      <c r="C85" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" t="s">
         <v>307</v>
-      </c>
-      <c r="C85" t="s">
-        <v>305</v>
-      </c>
-      <c r="D85" t="s">
-        <v>309</v>
       </c>
       <c r="E85">
         <v>23.449999989999998</v>
@@ -73529,10 +73665,10 @@
       <c r="AB85">
         <v>14.150000000000002</v>
       </c>
-      <c r="AC85">
+      <c r="AC85" s="1">
         <v>-12.827414997072728</v>
       </c>
-      <c r="AD85">
+      <c r="AD85" s="1">
         <v>2.0035090780197455</v>
       </c>
       <c r="AE85">
@@ -73550,10 +73686,10 @@
       <c r="AI85">
         <v>-1.8725857138761961</v>
       </c>
-      <c r="AJ85">
+      <c r="AJ85" s="1">
         <v>62.889340868610198</v>
       </c>
-      <c r="AK85">
+      <c r="AK85" s="1">
         <v>51.639498924659051</v>
       </c>
       <c r="AL85">
@@ -74363,13 +74499,13 @@
         <v>26</v>
       </c>
       <c r="B86" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" t="s">
         <v>304</v>
-      </c>
-      <c r="C86" t="s">
-        <v>308</v>
-      </c>
-      <c r="D86" t="s">
-        <v>306</v>
       </c>
       <c r="E86">
         <v>24.149999989999998</v>
@@ -74443,10 +74579,10 @@
       <c r="AB86">
         <v>24.150000000000002</v>
       </c>
-      <c r="AC86">
+      <c r="AC86" s="1">
         <v>3.8921467766589215</v>
       </c>
-      <c r="AD86">
+      <c r="AD86" s="1">
         <v>1.7302447639598943</v>
       </c>
       <c r="AE86">
@@ -74464,10 +74600,10 @@
       <c r="AI86">
         <v>1.4712623691219158</v>
       </c>
-      <c r="AJ86">
+      <c r="AJ86" s="1">
         <v>40.583953478867492</v>
       </c>
-      <c r="AK86">
+      <c r="AK86" s="1">
         <v>32.793214961778695</v>
       </c>
       <c r="AL86">
@@ -75277,13 +75413,13 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C87" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D87" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E87">
         <v>29.599999990000001</v>
@@ -75357,10 +75493,10 @@
       <c r="AB87">
         <v>28.85</v>
       </c>
-      <c r="AC87">
+      <c r="AC87" s="1">
         <v>8.0657136318594649</v>
       </c>
-      <c r="AD87">
+      <c r="AD87" s="1">
         <v>0.87227641713650783</v>
       </c>
       <c r="AE87">
@@ -75378,10 +75514,10 @@
       <c r="AI87">
         <v>0.28274796996615803</v>
       </c>
-      <c r="AJ87">
+      <c r="AJ87" s="1">
         <v>55.012171498717976</v>
       </c>
-      <c r="AK87">
+      <c r="AK87" s="1">
         <v>43.693563751237214</v>
       </c>
       <c r="AL87">
@@ -76149,13 +76285,13 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C88" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E88">
         <v>11.499999989999999</v>
@@ -76226,10 +76362,10 @@
       <c r="AA88">
         <v>11.5</v>
       </c>
-      <c r="AC88">
+      <c r="AC88" s="1">
         <v>2.0294535757883652</v>
       </c>
-      <c r="AD88">
+      <c r="AD88" s="1">
         <v>2.0294535757883652</v>
       </c>
       <c r="AE88">
@@ -76244,10 +76380,10 @@
       <c r="AI88">
         <v>3.1730300186677818</v>
       </c>
-      <c r="AJ88">
+      <c r="AJ88" s="1">
         <v>68.193148243796244</v>
       </c>
-      <c r="AK88">
+      <c r="AK88" s="1">
         <v>68.193148243796244</v>
       </c>
       <c r="AL88">
@@ -77015,13 +77151,13 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
+        <v>305</v>
+      </c>
+      <c r="C89" t="s">
+        <v>303</v>
+      </c>
+      <c r="D89" t="s">
         <v>307</v>
-      </c>
-      <c r="C89" t="s">
-        <v>305</v>
-      </c>
-      <c r="D89" t="s">
-        <v>309</v>
       </c>
       <c r="E89">
         <v>25.449999989999998</v>
@@ -77092,10 +77228,10 @@
       <c r="AA89">
         <v>17.600000000000001</v>
       </c>
-      <c r="AC89">
+      <c r="AC89" s="1">
         <v>6.4903983171055746</v>
       </c>
-      <c r="AD89">
+      <c r="AD89" s="1">
         <v>0.83612650209514849</v>
       </c>
       <c r="AE89">
@@ -77113,10 +77249,10 @@
       <c r="AI89">
         <v>0.51086129339662489</v>
       </c>
-      <c r="AJ89">
+      <c r="AJ89" s="1">
         <v>74.749734408709699</v>
       </c>
-      <c r="AK89">
+      <c r="AK89" s="1">
         <v>69.209094260595208</v>
       </c>
       <c r="AL89">
@@ -77926,13 +78062,13 @@
         <v>28</v>
       </c>
       <c r="B90" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" t="s">
         <v>304</v>
-      </c>
-      <c r="C90" t="s">
-        <v>308</v>
-      </c>
-      <c r="D90" t="s">
-        <v>306</v>
       </c>
       <c r="E90">
         <v>16.449999989999998</v>
@@ -78006,10 +78142,10 @@
       <c r="AB90">
         <v>10.599999999999998</v>
       </c>
-      <c r="AC90">
+      <c r="AC90" s="1">
         <v>6.4622045812414353</v>
       </c>
-      <c r="AD90">
+      <c r="AD90" s="1">
         <v>1.4188816192980949</v>
       </c>
       <c r="AE90">
@@ -78027,10 +78163,10 @@
       <c r="AI90">
         <v>1.6088202948522961</v>
       </c>
-      <c r="AJ90">
+      <c r="AJ90" s="1">
         <v>33.226591064253597</v>
       </c>
-      <c r="AK90">
+      <c r="AK90" s="1">
         <v>28.860987706852068</v>
       </c>
       <c r="AL90">
@@ -78798,13 +78934,13 @@
         <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C91" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D91" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E91">
         <v>15.349999989999999</v>
@@ -78875,10 +79011,10 @@
       <c r="AB91">
         <v>15.350000000000001</v>
       </c>
-      <c r="AC91">
+      <c r="AC91" s="1">
         <v>1.1380438929003378</v>
       </c>
-      <c r="AD91">
+      <c r="AD91" s="1">
         <v>0.75640105790346257</v>
       </c>
       <c r="AE91">
@@ -78896,10 +79032,10 @@
       <c r="AI91">
         <v>0.85951305678699896</v>
       </c>
-      <c r="AJ91">
+      <c r="AJ91" s="1">
         <v>35.504531321027365</v>
       </c>
-      <c r="AK91">
+      <c r="AK91" s="1">
         <v>31.507529770834836</v>
       </c>
       <c r="AL91">
@@ -79667,13 +79803,13 @@
         <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C92" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E92">
         <v>8.7999999899999999</v>
@@ -79741,10 +79877,10 @@
       <c r="AB92">
         <v>7.2000000000000011</v>
       </c>
-      <c r="AC92">
+      <c r="AC92" s="1">
         <v>2.176349268575664</v>
       </c>
-      <c r="AD92">
+      <c r="AD92" s="1">
         <v>2.176349268575664</v>
       </c>
       <c r="AE92">
@@ -79756,10 +79892,10 @@
       <c r="AI92">
         <v>3.6749773010210891</v>
       </c>
-      <c r="AJ92">
+      <c r="AJ92" s="1">
         <v>26.019055391968429</v>
       </c>
-      <c r="AK92">
+      <c r="AK92" s="1">
         <v>26.019055391968429</v>
       </c>
       <c r="AL92">
@@ -80404,13 +80540,13 @@
         <v>28</v>
       </c>
       <c r="B93" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" t="s">
+        <v>303</v>
+      </c>
+      <c r="D93" t="s">
         <v>307</v>
-      </c>
-      <c r="C93" t="s">
-        <v>305</v>
-      </c>
-      <c r="D93" t="s">
-        <v>309</v>
       </c>
       <c r="E93">
         <v>27.099999990000001</v>
@@ -80484,10 +80620,10 @@
       <c r="AB93">
         <v>13.850000000000001</v>
       </c>
-      <c r="AC93">
+      <c r="AC93" s="1">
         <v>-7.9450466185593251</v>
       </c>
-      <c r="AD93">
+      <c r="AD93" s="1">
         <v>0.75161475342771444</v>
       </c>
       <c r="AE93">
@@ -80505,10 +80641,10 @@
       <c r="AI93">
         <v>0.80664080891067858</v>
       </c>
-      <c r="AJ93">
+      <c r="AJ93" s="1">
         <v>36.689183348776005</v>
       </c>
-      <c r="AK93">
+      <c r="AK93" s="1">
         <v>28.361626967874322</v>
       </c>
       <c r="AL93">
@@ -81272,22 +81408,22 @@
       </c>
     </row>
     <row r="94" spans="1:304" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>29</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C94" t="s">
-        <v>305</v>
-      </c>
-      <c r="D94" t="s">
-        <v>306</v>
       </c>
       <c r="E94">
         <v>3.2499999900000001</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>3.2499999900000001</v>
       </c>
       <c r="G94">
@@ -81350,10 +81486,10 @@
       <c r="AB94">
         <v>-1.05</v>
       </c>
-      <c r="AC94">
+      <c r="AC94" s="1">
         <v>1.1884387214124215</v>
       </c>
-      <c r="AD94">
+      <c r="AD94" s="1">
         <v>1.1884387214124215</v>
       </c>
       <c r="AE94">
@@ -81365,10 +81501,10 @@
       <c r="AI94">
         <v>0.56553849466524475</v>
       </c>
-      <c r="AJ94">
+      <c r="AJ94" s="1">
         <v>58.858086862752813</v>
       </c>
-      <c r="AK94">
+      <c r="AK94" s="1">
         <v>58.858086862752813</v>
       </c>
       <c r="AL94">
@@ -82013,18 +82149,18 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C95" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D95" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E95">
         <v>18.54999999</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>3.2499999900000001</v>
       </c>
       <c r="G95">
@@ -82093,10 +82229,10 @@
       <c r="AB95">
         <v>5</v>
       </c>
-      <c r="AC95">
+      <c r="AC95" s="1">
         <v>210.91666432416756</v>
       </c>
-      <c r="AD95">
+      <c r="AD95" s="1">
         <v>0.69375703041421255</v>
       </c>
       <c r="AE95">
@@ -82114,10 +82250,10 @@
       <c r="AI95">
         <v>9.7013311424614543E-2</v>
       </c>
-      <c r="AJ95">
+      <c r="AJ95" s="1">
         <v>69.690422676507765</v>
       </c>
-      <c r="AK95">
+      <c r="AK95" s="1">
         <v>60.685997422998767</v>
       </c>
       <c r="AL95">
@@ -82885,18 +83021,18 @@
         <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C96" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E96">
         <v>8.3499999899999988</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>3.2499999900000001</v>
       </c>
       <c r="G96">
@@ -82956,10 +83092,10 @@
       <c r="AB96">
         <v>8.35</v>
       </c>
-      <c r="AC96">
+      <c r="AC96" s="1">
         <v>6.504783821288479E-2</v>
       </c>
-      <c r="AD96">
+      <c r="AD96" s="1">
         <v>0.44562103664103192</v>
       </c>
       <c r="AE96">
@@ -82971,10 +83107,10 @@
       <c r="AI96">
         <v>0.77105988394472547</v>
       </c>
-      <c r="AJ96">
+      <c r="AJ96" s="1">
         <v>55.822392375461099</v>
       </c>
-      <c r="AK96">
+      <c r="AK96" s="1">
         <v>52.76815104748043</v>
       </c>
       <c r="AL96">
@@ -83619,18 +83755,18 @@
         <v>29</v>
       </c>
       <c r="B97" t="s">
+        <v>305</v>
+      </c>
+      <c r="C97" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" t="s">
         <v>307</v>
-      </c>
-      <c r="C97" t="s">
-        <v>308</v>
-      </c>
-      <c r="D97" t="s">
-        <v>309</v>
       </c>
       <c r="E97">
         <v>33.849999990000001</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>3.2499999900000001</v>
       </c>
       <c r="G97">
@@ -83699,10 +83835,10 @@
       <c r="AB97">
         <v>7.3000000000000007</v>
       </c>
-      <c r="AC97">
+      <c r="AC97" s="1">
         <v>-108.89890545319828</v>
       </c>
-      <c r="AD97">
+      <c r="AD97" s="1">
         <v>0.75390496788524064</v>
       </c>
       <c r="AE97">
@@ -83720,10 +83856,10 @@
       <c r="AI97">
         <v>0.37162388098240207</v>
       </c>
-      <c r="AJ97">
+      <c r="AJ97" s="1">
         <v>66.558717405068094</v>
       </c>
-      <c r="AK97">
+      <c r="AK97" s="1">
         <v>46.787899947978161</v>
       </c>
       <c r="AL97">
@@ -84491,13 +84627,13 @@
         <v>30</v>
       </c>
       <c r="B98" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98" t="s">
         <v>304</v>
-      </c>
-      <c r="C98" t="s">
-        <v>305</v>
-      </c>
-      <c r="D98" t="s">
-        <v>306</v>
       </c>
       <c r="E98">
         <v>8.6499999899999995</v>
@@ -84565,10 +84701,10 @@
       <c r="AB98">
         <v>5.25</v>
       </c>
-      <c r="AC98">
+      <c r="AC98" s="1">
         <v>1.7601462569908635</v>
       </c>
-      <c r="AD98">
+      <c r="AD98" s="1">
         <v>1.7157750992404395</v>
       </c>
       <c r="AE98">
@@ -84580,10 +84716,10 @@
       <c r="AI98">
         <v>1.7102997823255019</v>
       </c>
-      <c r="AJ98">
+      <c r="AJ98" s="1">
         <v>38.751661574420815</v>
       </c>
-      <c r="AK98">
+      <c r="AK98" s="1">
         <v>38.384720419691099</v>
       </c>
       <c r="AL98">
@@ -85228,13 +85364,13 @@
         <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E99">
         <v>20.499999989999999</v>
@@ -85308,10 +85444,10 @@
       <c r="AB99">
         <v>13.35</v>
       </c>
-      <c r="AC99">
+      <c r="AC99" s="1">
         <v>3.224468051629632</v>
       </c>
-      <c r="AD99">
+      <c r="AD99" s="1">
         <v>0.86339258059911039</v>
       </c>
       <c r="AE99">
@@ -85329,10 +85465,10 @@
       <c r="AI99">
         <v>0.49361650359783976</v>
       </c>
-      <c r="AJ99">
+      <c r="AJ99" s="1">
         <v>41.462354538083915</v>
       </c>
-      <c r="AK99">
+      <c r="AK99" s="1">
         <v>36.769007984807843</v>
       </c>
       <c r="AL99">
@@ -86100,13 +86236,13 @@
         <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E100">
         <v>7.6499999900000004</v>
@@ -86168,10 +86304,10 @@
       <c r="Z100">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="AC100">
+      <c r="AC100" s="1">
         <v>1.4254109876417895</v>
       </c>
-      <c r="AD100">
+      <c r="AD100" s="1">
         <v>1.4254109876417895</v>
       </c>
       <c r="AE100">
@@ -86183,10 +86319,10 @@
       <c r="AI100">
         <v>2.3213522667660524</v>
       </c>
-      <c r="AJ100">
+      <c r="AJ100" s="1">
         <v>38.695293100000342</v>
       </c>
-      <c r="AK100">
+      <c r="AK100" s="1">
         <v>38.695293100000342</v>
       </c>
       <c r="AL100">
@@ -86831,13 +86967,13 @@
         <v>30</v>
       </c>
       <c r="B101" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" t="s">
+        <v>306</v>
+      </c>
+      <c r="D101" t="s">
         <v>307</v>
-      </c>
-      <c r="C101" t="s">
-        <v>308</v>
-      </c>
-      <c r="D101" t="s">
-        <v>309</v>
       </c>
       <c r="E101">
         <v>19.999999989999999</v>
@@ -86911,10 +87047,10 @@
       <c r="AB101">
         <v>7.0500000000000007</v>
       </c>
-      <c r="AC101">
+      <c r="AC101" s="1">
         <v>1.2431380580551674</v>
       </c>
-      <c r="AD101">
+      <c r="AD101" s="1">
         <v>1.1899612580154113</v>
       </c>
       <c r="AE101">
@@ -86932,10 +87068,10 @@
       <c r="AI101">
         <v>1.0016329551984331</v>
       </c>
-      <c r="AJ101">
+      <c r="AJ101" s="1">
         <v>46.054438697046763</v>
       </c>
-      <c r="AK101">
+      <c r="AK101" s="1">
         <v>40.306365745657736</v>
       </c>
       <c r="AL101">
@@ -87703,13 +87839,13 @@
         <v>31</v>
       </c>
       <c r="B102" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" t="s">
         <v>304</v>
-      </c>
-      <c r="C102" t="s">
-        <v>308</v>
-      </c>
-      <c r="D102" t="s">
-        <v>306</v>
       </c>
       <c r="E102">
         <v>4.6499999900000004</v>
@@ -87774,10 +87910,10 @@
       <c r="AB102">
         <v>4.6500000000000004</v>
       </c>
-      <c r="AC102">
+      <c r="AC102" s="1">
         <v>0.49078515241315568</v>
       </c>
-      <c r="AD102">
+      <c r="AD102" s="1">
         <v>0.49078515241315568</v>
       </c>
       <c r="AE102">
@@ -87789,10 +87925,10 @@
       <c r="AI102">
         <v>0.34373132325639166</v>
       </c>
-      <c r="AJ102">
+      <c r="AJ102" s="1">
         <v>72.361255273873141</v>
       </c>
-      <c r="AK102">
+      <c r="AK102" s="1">
         <v>72.361255273873141</v>
       </c>
       <c r="AL102">
@@ -88383,13 +88519,13 @@
         <v>31</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C103" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E103">
         <v>13.14999999</v>
@@ -88463,10 +88599,10 @@
       <c r="AB103">
         <v>3.2</v>
       </c>
-      <c r="AC103">
+      <c r="AC103" s="1">
         <v>0.19921507623022516</v>
       </c>
-      <c r="AD103">
+      <c r="AD103" s="1">
         <v>0.61237519258295914</v>
       </c>
       <c r="AE103">
@@ -88481,10 +88617,10 @@
       <c r="AI103">
         <v>0.55225646241542914</v>
       </c>
-      <c r="AJ103">
+      <c r="AJ103" s="1">
         <v>56.564114554569365</v>
       </c>
-      <c r="AK103">
+      <c r="AK103" s="1">
         <v>52.085107579852483</v>
       </c>
       <c r="AL103">
@@ -89189,13 +89325,13 @@
         <v>31</v>
       </c>
       <c r="B104" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C104" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D104" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E104">
         <v>5.0999999899999997</v>
@@ -89263,10 +89399,10 @@
       <c r="AB104">
         <v>-0.25</v>
       </c>
-      <c r="AC104">
+      <c r="AC104" s="1">
         <v>0.70537497459049392</v>
       </c>
-      <c r="AD104">
+      <c r="AD104" s="1">
         <v>0.68091737915831207</v>
       </c>
       <c r="AE104">
@@ -89278,10 +89414,10 @@
       <c r="AI104">
         <v>-0.2374633952857699</v>
       </c>
-      <c r="AJ104">
+      <c r="AJ104" s="1">
         <v>40.533112272305772</v>
       </c>
-      <c r="AK104">
+      <c r="AK104" s="1">
         <v>40.378646393786568</v>
       </c>
       <c r="AL104">
@@ -89872,13 +90008,13 @@
         <v>31</v>
       </c>
       <c r="B105" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" t="s">
+        <v>303</v>
+      </c>
+      <c r="D105" t="s">
         <v>307</v>
-      </c>
-      <c r="C105" t="s">
-        <v>305</v>
-      </c>
-      <c r="D105" t="s">
-        <v>309</v>
       </c>
       <c r="E105">
         <v>11.14999999</v>
@@ -89952,10 +90088,10 @@
       <c r="AB105">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AC105">
+      <c r="AC105" s="1">
         <v>4.498173913140147</v>
       </c>
-      <c r="AD105">
+      <c r="AD105" s="1">
         <v>1.4799795773173308</v>
       </c>
       <c r="AE105">
@@ -89970,10 +90106,10 @@
       <c r="AI105">
         <v>1.3815782087151853</v>
       </c>
-      <c r="AJ105">
+      <c r="AJ105" s="1">
         <v>40.819354384382891</v>
       </c>
-      <c r="AK105">
+      <c r="AK105" s="1">
         <v>38.250122132824558</v>
       </c>
       <c r="AL105">
@@ -90675,5 +90811,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>